--- a/biology/Histoire de la zoologie et de la botanique/Morris_Graham_Netting/Morris_Graham_Netting.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Morris_Graham_Netting/Morris_Graham_Netting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morris Graham Netting est un herpétologue américain né en 1904 à Wilkinsburg (Pennsylvanie) et mort le 26 août 1996 à Powdermill (Pennsylvanie).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>en 1925, alors qu'il était étudiant à Pitt, il devint volontaire au Carnegie Museum's amphibians and reptiles lab. Il fut engagé l'année suivante avec un salaire de cents par heure.
 de 1944 à 1963, il enseigna la géographie, la zoologie, et l'herpétologie à temps partiel à l’Université de Pittsburgh. Plethodon nettingi fut nommé en son honneur.
@@ -544,7 +558,9 @@
           <t>Quelques espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pseudobranchus axanthus Netting &amp; Goin, 1942
 Plethodon richmondi Netting &amp; Mittleman, 1938
@@ -576,7 +592,9 @@
           <t>Lien interne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alexander Grant Ruthven, un de ses professeurs
 Carnegie Museum of Natural History.</t>
